--- a/Materials/BANGS_items.xlsx
+++ b/Materials/BANGS_items.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Desktop/Research/1 Active Projects/2022 BANG Questionnaire/Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4E0722-16C1-9444-A6F1-C5D6B53EBF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E41C18-786F-6D4E-B5DC-FBB2757C5BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="5400" windowWidth="27640" windowHeight="16940" xr2:uid="{43670338-F45A-5B4E-AEA1-2D0A6DACD0A3}"/>
+    <workbookView xWindow="5340" yWindow="2340" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{43670338-F45A-5B4E-AEA1-2D0A6DACD0A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Variant 1 - Game session" sheetId="2" r:id="rId2"/>
+    <sheet name="Variant 2 - Particular game" sheetId="3" r:id="rId3"/>
+    <sheet name="Variant 3 - Gaming in general" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="106">
   <si>
     <t>Many actions in [X] were boring.</t>
   </si>
@@ -181,13 +184,726 @@
   </si>
   <si>
     <t>bang_18</t>
+  </si>
+  <si>
+    <t>I could make choices regarding how to play the game.</t>
+  </si>
+  <si>
+    <t>I could play the game in the way I wanted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I could direct my own play experience in the game. </t>
+  </si>
+  <si>
+    <t>I felt forced to take certain actions in the game.</t>
+  </si>
+  <si>
+    <t>Many actions in the game were boring.</t>
+  </si>
+  <si>
+    <t>I often found myself wishing I could do something else within the game.</t>
+  </si>
+  <si>
+    <t>I felt I was getting better at playing the game.</t>
+  </si>
+  <si>
+    <t>I felt that I made progress while playing the game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt a sense of achievement while playing the game. </t>
+  </si>
+  <si>
+    <t>I often felt that I lacked the skills necessary for the game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I kept failing to accomplish what I wanted to while playing the game. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt disappointed with my performance in the game. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt I formed relationships with other players and/or characters in the game. </t>
+  </si>
+  <si>
+    <t>Engaging with the game, I felt a connection to others, virtual or real.</t>
+  </si>
+  <si>
+    <t>I felt that others players and/or characters in the game cared about me.</t>
+  </si>
+  <si>
+    <t>Interactions with other players and/or characters in the game felt toxic to me.</t>
+  </si>
+  <si>
+    <t>The community or virtual world in the game made me feel unwelcome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Others in the game were unfriendly towards me. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stem Text: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Please read each of the following items carefully, and choose from 1 to 7 to indicate the degree to which each statement characterizes your experiences in the game.
+Throughout my experiences playing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I could make choices regarding how to play </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Sans Pro Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I could play </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Sans Pro Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in the way I wanted.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I could direct my own play experience in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Sans Pro Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I felt forced to take certain actions in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Sans Pro Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Many actions in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Sans Pro Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> were boring.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I often found myself wishing I could do something else within </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Sans Pro Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I felt I was getting better at playing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Sans Pro Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I felt that I made progress while playing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Sans Pro Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I felt a sense of achievement while playing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Sans Pro Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I often felt that I lacked the skills necessary for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Sans Pro Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I kept failing to accomplish what I wanted to while playing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Sans Pro Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I felt disappointed with my performance in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Sans Pro Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I felt I formed relationships with other players and/or characters in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Sans Pro Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Engaging with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Sans Pro Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, I felt a connection to others, virtual or real.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I felt that others players and/or characters in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Sans Pro Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> cared about me.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interactions with other players and/or characters in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Sans Pro Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> felt toxic to me.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The community or virtual world in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Sans Pro Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> made me feel unwelcome.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Others in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Source Sans Pro Regular"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Source Sans Pro Regular"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> were unfriendly towards me. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[name of game]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be replaced either in advance by the researchers, if all participants will be responding about the same game, or can be dynamic for each participant using piped text (i.e., participants name a game they've been playing and this is automatically inserted into each item.</t>
+    </r>
+  </si>
+  <si>
+    <t>4 - Neither agree 
+nor disagree</t>
+  </si>
+  <si>
+    <t>1 - Strongly 
+disagree</t>
+  </si>
+  <si>
+    <t>7 - Strongly 
+agree</t>
+  </si>
+  <si>
+    <t>Response options</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stem Text: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please read each of the following items carefully, and choose from 1 to 7 to indicate the degree to which each statement characterizes your experiences in the game.
+Throughout my session of the game…</t>
+    </r>
+  </si>
+  <si>
+    <t>I could make choices regarding how to play the games I played.</t>
+  </si>
+  <si>
+    <t>I could play the games I played in the way I wanted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I could direct my own play experience in the games I played. </t>
+  </si>
+  <si>
+    <t>I felt forced to take certain actions in the games I played.</t>
+  </si>
+  <si>
+    <t>Many actions in the games I played were boring.</t>
+  </si>
+  <si>
+    <t>I often found myself wishing I could do something else within the games I played.</t>
+  </si>
+  <si>
+    <t>I felt I was getting better at playing the games I played.</t>
+  </si>
+  <si>
+    <t>I felt that I made progress while playing the games I played.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt a sense of achievement while playing the games I played. </t>
+  </si>
+  <si>
+    <t>I often felt that I lacked the skills necessary for the games I played.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I kept failing to accomplish what I wanted to while playing the games I played. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt disappointed with my performance in the games I played. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt I formed relationships with other players and/or characters in the games I played. </t>
+  </si>
+  <si>
+    <t>Engaging with the games I played, I felt a connection to others, virtual or real.</t>
+  </si>
+  <si>
+    <t>I felt that others players and/or characters in the games I played cared about me.</t>
+  </si>
+  <si>
+    <t>Interactions with other players and/or characters in the games I played felt toxic to me.</t>
+  </si>
+  <si>
+    <t>The community or virtual world in the games I played made me feel unwelcome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Others in the games I played were unfriendly towards me. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[time period]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be replaced by whatever period of time you feel is relevant for the study. In our research we used a period of 2 weeks. 
+The use of the phrase "[in] the games I played" is notably wordy—this was an conscious decision so that the items were extremely clear in referring to experiences across all games, but we are cautiously optimistic that the scale could equally be used to assess gaming in general simply by removing the phrase entirely from all items (e.g., bang_01 becomes "When playing games in the last [time period], I could make choices regarding how to play."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stem Text: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Please read each of the following items carefully, and choose from 1 to 7 to indicate the degree to which each statement characterizes your experiences of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">gaming in general throughout the past </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[time period]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Throughout my experiences playing games in the last </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>[time period]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>...</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -212,18 +928,86 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Source Sans Pro Regular"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Source Sans Pro Regular"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Source Sans Pro Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Source Sans Pro Regular"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -233,7 +1017,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -251,6 +1035,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AE0C6A-4BE2-1948-BCE8-C3527ECCDD8B}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,215 +1400,1071 @@
     <col min="1" max="1" width="31.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="60.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="11">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="11">
+        <v>5</v>
+      </c>
+      <c r="I2" s="11">
+        <v>6</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="4" t="s">
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="4" t="s">
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A20:C22"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
+  <mergeCells count="8">
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="A22:C24"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507450CD-62A9-0440-8744-D45BD294819F}">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="65.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="11">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="11">
+        <v>5</v>
+      </c>
+      <c r="I2" s="11">
+        <v>6</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2032B61-664F-3D46-B923-3F7B9DA0D558}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="68.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="11">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="11">
+        <v>5</v>
+      </c>
+      <c r="I2" s="11">
+        <v>6</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07DADB3-A487-834D-8657-520E48473C08}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="75.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="11">
+        <v>2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>3</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="11">
+        <v>5</v>
+      </c>
+      <c r="I2" s="11">
+        <v>6</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:4" ht="115" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>